--- a/template/BaseProfile-Template.xlsx
+++ b/template/BaseProfile-Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>TPS TO ACHIEVE</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>Load Distribution(%)</t>
+  </si>
+  <si>
+    <t>HTTP METHOD</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>GET</t>
   </si>
 </sst>
 </file>
@@ -455,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -467,9 +479,10 @@
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -484,7 +497,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -500,8 +513,11 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -520,8 +536,11 @@
         <f>D3*60</f>
         <v>1020</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -540,8 +559,11 @@
         <f t="shared" ref="E4:E8" si="1">D4*60</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -560,8 +582,11 @@
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -580,8 +605,11 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -600,8 +628,11 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
